--- a/output/2022年基金收益率排名前20持仓汇总及个股持仓_2022-6-12byQ.xlsx
+++ b/output/2022年基金收益率排名前20持仓汇总及个股持仓_2022-6-12byQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\nodejs\fundanalyze\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9437EB-40A4-435D-A4AA-F6DFCDC588FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DFF93F-E64C-4212-BC90-6ADB9165D446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rank" sheetId="1" r:id="rId1"/>
@@ -2044,9 +2044,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
@@ -2056,7 +2056,7 @@
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2492,9 +2492,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>234</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>239</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>244</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>249</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>254</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>259</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>264</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>269</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>274</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>279</v>
       </c>
@@ -2696,9 +2696,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>234</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>239</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>244</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>259</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>269</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>264</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>279</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>274</v>
       </c>
@@ -2900,9 +2900,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -2939,9 +2939,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -2978,9 +2978,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>234</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>239</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>259</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>249</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>269</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>244</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>338</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>279</v>
       </c>
@@ -3182,9 +3182,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -3221,9 +3221,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -3260,9 +3260,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>274</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>338</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>355</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>279</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>254</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>244</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>367</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>372</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>377</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>382</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>387</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>392</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>397</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>402</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>407</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>411</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>416</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>421</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>426</v>
       </c>
@@ -3634,9 +3634,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>274</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>338</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>355</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>279</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>254</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>244</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>367</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>372</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>377</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>426</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>431</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>436</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>441</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>446</v>
       </c>
@@ -3923,9 +3923,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>450</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>355</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>456</v>
       </c>
@@ -4006,9 +4006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
@@ -4016,7 +4016,7 @@
     <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>244</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>7369.82</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>9347.6299999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>279</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>11971.92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>355</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>16098.41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>274</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>9461.23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>249</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>8502.32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>20964.96</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>134</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>5162.04</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>5815.87</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>6362.27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>259</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>6234.86</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>338</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>8225.49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>269</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>5724.38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>264</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>6246.12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>416</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>982.04</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>472</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>15060.72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>382</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>1166.72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>456</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>421</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>2280.21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>461</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>22518.16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>494</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>6968.52</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>377</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>6893.66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>450</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>516</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>521</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>37.24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>525</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>512</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>216.2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>426</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>209.2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>529</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>10396.09</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>10237.200000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>9456.2900000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>9195.26</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>129</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>9089.9599999999991</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>8971.48</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>8864.25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>153</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>8809.11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>158</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>22329.73</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>163</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>11724.24</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>168</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>9350.1200000000008</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>173</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>8658.66</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>181</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>5423.3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>186</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>5373.03</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>191</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>5227.93</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>199</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>4129.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>367</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>7000.89</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>372</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>6950.91</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>477</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>13616.78</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>446</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>18.260000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>411</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>4579.6400000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>387</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>5580.59</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>392</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>5164.04</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>397</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>5059.1899999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>407</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>4878.9799999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>499</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>2438.61</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>402</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>4882.1899999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>431</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>111.84</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>436</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>41.06</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>441</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>20.97</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>205</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>157.12</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>210</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>128.22</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>106.37</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>219</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>92.84</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>224</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>56.11</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -5153,9 +5153,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>450</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>355</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>456</v>
       </c>
@@ -5238,9 +5238,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>461</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>234</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>355</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>472</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>477</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>279</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>274</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>254</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>244</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>494</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>499</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>421</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>382</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>416</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>512</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>516</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>521</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>525</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>529</v>
       </c>
@@ -5595,9 +5595,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>461</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>234</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>355</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>472</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>477</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>279</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>274</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>254</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>244</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>494</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>512</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>516</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>521</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>525</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>529</v>
       </c>
@@ -5884,7 +5884,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
@@ -5892,7 +5892,7 @@
     <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>134</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>138</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -6094,9 +6094,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>134</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>138</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -6298,9 +6298,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>186</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>191</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -6502,9 +6502,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>186</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>191</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -6706,9 +6706,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -6745,9 +6745,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>205</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>224</v>
       </c>
@@ -6864,9 +6864,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>229</v>
       </c>
